--- a/biology/Botanique/Liste_des_espèces_végétales_protégées_en_Bourgogne/Liste_des_espèces_végétales_protégées_en_Bourgogne.xlsx
+++ b/biology/Botanique/Liste_des_espèces_végétales_protégées_en_Bourgogne/Liste_des_espèces_végétales_protégées_en_Bourgogne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_en_Bourgogne</t>
+          <t>Liste_des_espèces_végétales_protégées_en_Bourgogne</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La liste des espèces protégées en Bourgogne est une liste officielle définie par le gouvernement français, recensant les espèces végétales qui sont protégées sur le territoire de la région Bourgogne, en complément de celles qui sont déjà protégées sur le territoire métropolitain. Elle a été publiée dans  l'arrêté du 27 mars 1992[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La liste des espèces protégées en Bourgogne est une liste officielle définie par le gouvernement français, recensant les espèces végétales qui sont protégées sur le territoire de la région Bourgogne, en complément de celles qui sont déjà protégées sur le territoire métropolitain. Elle a été publiée dans  l'arrêté du 27 mars 1992.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_en_Bourgogne</t>
+          <t>Liste_des_espèces_végétales_protégées_en_Bourgogne</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Ptéridophytes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Asplenium billotii F.W. Schultz, Asplenium de Billot
 Botrychium lunaria (L.) Swartz, Botryche lunaire
@@ -532,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_en_Bourgogne</t>
+          <t>Liste_des_espèces_végétales_protégées_en_Bourgogne</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -552,8 +566,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Monocotylédones
-Baldellia ranunculoides (L.) Parl., Flûteau fausse-renoncule
+          <t>Monocotylédones</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Baldellia ranunculoides (L.) Parl., Flûteau fausse-renoncule
 Butomus umbellatus L., Butome en ombelle
 Calamagrostis arundinacea (L.) Roth, Calamagrostis faux-roseau
 Carex diandra Schrank, Laiche arrondie
@@ -575,9 +594,43 @@
 Scirpus fluitans L., Scirpe flottant
 Spiranthes spiralis (L.) Chevall., Spiranthe d'automne
 Stipa pennata L., Stipe penné
-Stratiotes aloides L., Faux aloès
-Dicotylédones
-Acer monspessulanum L., Érable de Montpellier
+Stratiotes aloides L., Faux aloès</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées_en_Bourgogne</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_en_Bourgogne</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Phanérogames angiospermes</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Dicotylédones</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Acer monspessulanum L., Érable de Montpellier
 Anarrhinum bellidifolium L. Willd., Anarrhinum à feuilles de pâquerette
 Antennaria dioica (L.) Gaertn., Pied de chat
 Anthyllis montana L., Vulnéraire des montagnes
